--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22030E95-C0D3-4AEF-86F3-72B95EBDC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4CDF1-56F3-43A1-9CBB-9D9B06CE37CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,FaP,SaP,RaD,RaP,SaD,WaD,FaD</t>
-  </si>
-  <si>
-    <t>RaN,SaN,WaN,WaP,FaP,SaP,FaN,RaP</t>
+    <t>RaD,FaP,SaP,FaD,WaD,SaD,RaP,WaP</t>
+  </si>
+  <si>
+    <t>WaP,RaP,FaP,SaP,FaN,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -908,7 +908,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaN,SaN,WaN,WaP,FaP,SaP,FaN,RaP</v>
+        <v>WaP,RaP,FaP,SaP,FaN,SaN,WaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -940,7 +940,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,FaP,SaP,RaD,RaP,SaD,WaD,FaD</v>
+        <v>RaD,FaP,SaP,FaD,WaD,SaD,RaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9246D209-757A-4FD6-8598-729E75E1FF70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C716B376-19E7-4450-9B45-99B1E3D010C4}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B009FEB-27CD-4435-8228-C9C549B0F3F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E92A-1FB1-4665-84D5-C58747A715B1}">
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0305D275-47D4-4473-AE64-84DB7FACA7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD499B-1910-4175-A2D6-B46F4482BAB0}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
